--- a/VERİTABANI DİYAGRAMI.xlsx
+++ b/VERİTABANI DİYAGRAMI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="97">
   <si>
     <t>Aksiyon</t>
   </si>
@@ -249,9 +249,6 @@
     <t>YrmIDFK</t>
   </si>
   <si>
-    <t>EserlerIDFK</t>
-  </si>
-  <si>
     <t>UyeIDFK</t>
   </si>
   <si>
@@ -306,13 +303,13 @@
     <t>YonetmenIDFK</t>
   </si>
   <si>
-    <t>Izlediklerim(EserlerIDFK)</t>
-  </si>
-  <si>
-    <t>Izlenecekler(EserlerIDFK)</t>
-  </si>
-  <si>
     <t>MovieStallPuani</t>
+  </si>
+  <si>
+    <t>Izlediklerim(EserBilgisiID)</t>
+  </si>
+  <si>
+    <t>Izlenecekler(EserBilgisiID)</t>
   </si>
 </sst>
 </file>
@@ -487,7 +484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -525,9 +522,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -555,12 +549,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -573,28 +588,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -886,58 +880,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="10.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" style="3" customWidth="1"/>
+    <col min="1" max="4" width="10.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="15.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" style="3" customWidth="1"/>
     <col min="16" max="17" width="25" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="2.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.7109375" style="3"/>
+    <col min="23" max="23" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="2.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35"/>
-      <c r="K1" s="29" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
+      <c r="K1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="29"/>
+      <c r="L1" s="22"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -945,7 +939,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>30</v>
       </c>
@@ -980,7 +974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1015,7 +1009,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -1050,38 +1044,38 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+    <row r="7" spans="1:25" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="30" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
-      <c r="I7" s="25" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="I7" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="9" t="s">
         <v>25</v>
       </c>
@@ -1094,8 +1088,8 @@
       <c r="G8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="14" t="s">
-        <v>85</v>
+      <c r="I8" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>61</v>
@@ -1113,7 +1107,7 @@
         <v>63</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P8" s="12" t="s">
         <v>64</v>
@@ -1122,14 +1116,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>1</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="21"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="6">
         <v>1</v>
       </c>
@@ -1164,14 +1158,14 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="6">
         <v>2</v>
       </c>
@@ -1186,14 +1180,14 @@
       </c>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="6">
         <v>3</v>
       </c>
@@ -1206,25 +1200,25 @@
       <c r="G11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="6">
         <v>4</v>
       </c>
@@ -1237,33 +1231,33 @@
       <c r="G12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="K12" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="K12" s="12" t="s">
-        <v>89</v>
-      </c>
       <c r="L12" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="P12" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C13" s="21"/>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="C13" s="20"/>
       <c r="D13" s="6">
         <v>5</v>
       </c>
@@ -1285,8 +1279,8 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C14" s="21"/>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="C14" s="20"/>
       <c r="D14" s="6">
         <v>6</v>
       </c>
@@ -1300,8 +1294,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="21"/>
+    <row r="15" spans="1:25" ht="18" x14ac:dyDescent="0.3">
+      <c r="C15" s="20"/>
       <c r="D15" s="6">
         <v>7</v>
       </c>
@@ -1314,19 +1308,19 @@
       <c r="G15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C16" s="21"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="C16" s="20"/>
       <c r="D16" s="6">
         <v>8</v>
       </c>
@@ -1339,33 +1333,33 @@
       <c r="G16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="K16" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="12" t="s">
-        <v>92</v>
-      </c>
       <c r="L16" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="P16" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C17" s="21"/>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C17" s="20"/>
       <c r="D17" s="6">
         <v>9</v>
       </c>
@@ -1387,8 +1381,8 @@
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C18" s="21"/>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C18" s="20"/>
       <c r="D18" s="6">
         <v>10</v>
       </c>
@@ -1402,8 +1396,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="3:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="21"/>
+    <row r="19" spans="3:22" ht="18" x14ac:dyDescent="0.3">
+      <c r="C19" s="20"/>
       <c r="D19" s="6">
         <v>11</v>
       </c>
@@ -1416,19 +1410,22 @@
       <c r="G19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C20" s="21"/>
+      <c r="I19" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C20" s="20"/>
       <c r="D20" s="6">
         <v>12</v>
       </c>
@@ -1441,27 +1438,42 @@
       <c r="G20" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="M20" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="N20" s="19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C21" s="21"/>
+      <c r="I20" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C21" s="20"/>
       <c r="D21" s="6">
         <v>13</v>
       </c>
@@ -1480,9 +1492,14 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C22" s="21"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C22" s="20"/>
       <c r="D22" s="6">
         <v>14</v>
       </c>
@@ -1496,8 +1513,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="3:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="21"/>
+    <row r="23" spans="3:22" ht="18" x14ac:dyDescent="0.3">
+      <c r="C23" s="20"/>
       <c r="D23" s="6">
         <v>15</v>
       </c>
@@ -1510,22 +1527,17 @@
       <c r="G23" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I23" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-    </row>
-    <row r="24" spans="3:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="21"/>
+      <c r="I23" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+    </row>
+    <row r="24" spans="3:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="20"/>
       <c r="D24" s="6">
         <v>16</v>
       </c>
@@ -1539,42 +1551,27 @@
         <v>52</v>
       </c>
       <c r="H24" s="3"/>
-      <c r="I24" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>34</v>
+      <c r="I24" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="R24" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="S24" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C25" s="21"/>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C25" s="20"/>
       <c r="D25" s="6">
         <v>17</v>
       </c>
@@ -1593,14 +1590,9 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C26" s="21"/>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C26" s="20"/>
       <c r="D26" s="6">
         <v>18</v>
       </c>
@@ -1614,8 +1606,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="3:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="21"/>
+    <row r="27" spans="3:22" ht="18" x14ac:dyDescent="0.3">
+      <c r="C27" s="20"/>
       <c r="D27" s="6">
         <v>19</v>
       </c>
@@ -1628,64 +1620,60 @@
       <c r="G27" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I27" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
+      <c r="I27" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="21"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="I28" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="J28" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="K28" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="I28" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="N28" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.3">
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
     </row>
   </sheetData>
   <sortState ref="AC4:AC24">
     <sortCondition ref="AC4"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="I23:N23"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="I23:S23"/>
+    <mergeCell ref="I19:S19"/>
     <mergeCell ref="I7:Q7"/>
     <mergeCell ref="I11:P11"/>
     <mergeCell ref="I15:P15"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="I27:O27"/>
+    <mergeCell ref="I27:N27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>

--- a/VERİTABANI DİYAGRAMI.xlsx
+++ b/VERİTABANI DİYAGRAMI.xlsx
@@ -430,7 +430,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -489,6 +489,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -516,24 +534,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -821,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -833,7 +834,7 @@
     <col min="5" max="5" width="12.33203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9" style="3" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" style="3" customWidth="1"/>
     <col min="10" max="10" width="14.33203125" style="3" customWidth="1"/>
     <col min="11" max="11" width="16.44140625" style="3" customWidth="1"/>
@@ -860,21 +861,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="27"/>
-      <c r="K1" s="21" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="33"/>
+      <c r="K1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="21"/>
+      <c r="L1" s="27"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -988,31 +989,31 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="19"/>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="I7" s="29" t="s">
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="I7" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -1167,19 +1168,19 @@
       <c r="G12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="34"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="25"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C13" s="18"/>
@@ -1284,14 +1285,14 @@
       <c r="G16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
     </row>
     <row r="17" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C17" s="18"/>
@@ -1381,11 +1382,11 @@
       <c r="G20" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="30" t="s">
+      <c r="I20" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
@@ -1433,7 +1434,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="M22" s="31"/>
+      <c r="M22" s="20"/>
     </row>
     <row r="23" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C23" s="18"/>
@@ -1511,20 +1512,29 @@
         <v>48</v>
       </c>
       <c r="V27" s="1"/>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="H31" s="35"/>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="H32" s="35"/>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H33" s="35"/>
     </row>
   </sheetData>
   <sortState ref="AC4:AC24">
     <sortCondition ref="AC4"/>
   </sortState>
   <mergeCells count="8">
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="I7:T7"/>
     <mergeCell ref="I12:S12"/>
     <mergeCell ref="I16:N16"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>

--- a/VERİTABANI DİYAGRAMI.xlsx
+++ b/VERİTABANI DİYAGRAMI.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
   <si>
     <t>Aksiyon</t>
   </si>
@@ -222,15 +222,6 @@
     <t>YrmID</t>
   </si>
   <si>
-    <t>ESERLER</t>
-  </si>
-  <si>
-    <t>EserlerID</t>
-  </si>
-  <si>
-    <t>YrmIDFK</t>
-  </si>
-  <si>
     <t>UyeIDFK</t>
   </si>
   <si>
@@ -247,9 +238,6 @@
   </si>
   <si>
     <t>EserBilgisiID</t>
-  </si>
-  <si>
-    <t>EserBilgisiIDFK</t>
   </si>
   <si>
     <t>MovieStallPuani</t>
@@ -309,7 +297,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,12 +331,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,7 +412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -471,13 +453,10 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -492,49 +471,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -825,7 +804,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -861,21 +840,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="33"/>
-      <c r="K1" s="27" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="K1" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="27"/>
+      <c r="L1" s="33"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -935,7 +914,7 @@
         <v>46</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G3" s="6">
         <v>1234</v>
@@ -989,31 +968,31 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="28" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
-      <c r="I7" s="22" t="s">
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="I7" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -1022,7 +1001,7 @@
       <c r="B8" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="9" t="s">
         <v>25</v>
       </c>
@@ -1036,7 +1015,7 @@
         <v>43</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>57</v>
@@ -1057,13 +1036,13 @@
         <v>59</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="S8" s="12" t="s">
         <v>60</v>
@@ -1079,7 +1058,7 @@
       <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="6">
         <v>1</v>
       </c>
@@ -1112,7 +1091,7 @@
       <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="18"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="6">
         <v>2</v>
       </c>
@@ -1134,7 +1113,7 @@
       <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="18"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="6">
         <v>3</v>
       </c>
@@ -1155,7 +1134,7 @@
       <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="18"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="6">
         <v>4</v>
       </c>
@@ -1168,22 +1147,22 @@
       <c r="G12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="25"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="31"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="C13" s="18"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="6">
         <v>5</v>
       </c>
@@ -1215,13 +1194,13 @@
         <v>36</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="R13" s="7" t="s">
         <v>37</v>
@@ -1231,7 +1210,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="C14" s="18"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="6">
         <v>6</v>
       </c>
@@ -1257,7 +1236,7 @@
       <c r="S14" s="6"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="C15" s="18"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="6">
         <v>7</v>
       </c>
@@ -1272,7 +1251,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="18" x14ac:dyDescent="0.3">
-      <c r="C16" s="18"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="6">
         <v>8</v>
       </c>
@@ -1285,17 +1264,17 @@
       <c r="G16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
     </row>
     <row r="17" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C17" s="18"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="6">
         <v>9</v>
       </c>
@@ -1308,20 +1287,20 @@
       <c r="G17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="15" t="s">
         <v>66</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N17" s="7" t="s">
         <v>37</v>
@@ -1333,7 +1312,7 @@
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C18" s="18"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="6">
         <v>10</v>
       </c>
@@ -1354,7 +1333,7 @@
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C19" s="18"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="6">
         <v>11</v>
       </c>
@@ -1369,7 +1348,7 @@
       </c>
     </row>
     <row r="20" spans="3:22" ht="18" x14ac:dyDescent="0.3">
-      <c r="C20" s="18"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="6">
         <v>12</v>
       </c>
@@ -1382,18 +1361,16 @@
       <c r="G20" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
     </row>
     <row r="21" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C21" s="18"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="6">
         <v>13</v>
       </c>
@@ -1406,19 +1383,13 @@
       <c r="G21" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="M21" s="17"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="M21" s="16"/>
     </row>
     <row r="22" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C22" s="18"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="6">
         <v>14</v>
       </c>
@@ -1431,13 +1402,13 @@
       <c r="G22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="M22" s="20"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="M22" s="19"/>
     </row>
     <row r="23" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C23" s="18"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="6">
         <v>15</v>
       </c>
@@ -1450,9 +1421,12 @@
       <c r="G23" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
     </row>
     <row r="24" spans="3:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="18"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="6">
         <v>16</v>
       </c>
@@ -1466,9 +1440,12 @@
         <v>48</v>
       </c>
       <c r="H24" s="3"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
     </row>
     <row r="25" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C25" s="18"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="6">
         <v>17</v>
       </c>
@@ -1481,9 +1458,12 @@
       <c r="G25" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
     </row>
     <row r="26" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C26" s="18"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="6">
         <v>18</v>
       </c>
@@ -1498,7 +1478,7 @@
       </c>
     </row>
     <row r="27" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C27" s="18"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="6">
         <v>19</v>
       </c>
@@ -1514,13 +1494,13 @@
       <c r="V27" s="1"/>
     </row>
     <row r="31" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="H31" s="35"/>
+      <c r="H31" s="20"/>
     </row>
     <row r="32" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="H32" s="35"/>
+      <c r="H32" s="20"/>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H33" s="35"/>
+      <c r="H33" s="20"/>
     </row>
   </sheetData>
   <sortState ref="AC4:AC24">

--- a/VERİTABANI DİYAGRAMI.xlsx
+++ b/VERİTABANI DİYAGRAMI.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="102">
   <si>
     <t>Aksiyon</t>
   </si>
@@ -105,6 +105,12 @@
     <t>İsim</t>
   </si>
   <si>
+    <t>OYUNCULAR</t>
+  </si>
+  <si>
+    <t>YÖNETMELER</t>
+  </si>
+  <si>
     <t>YntID</t>
   </si>
   <si>
@@ -162,6 +168,12 @@
     <t>nazurabi</t>
   </si>
   <si>
+    <t>nasuhberber@gmail.com</t>
+  </si>
+  <si>
+    <t>Hn161109*</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
@@ -204,6 +216,12 @@
     <t>GoruntulemeSayisi</t>
   </si>
   <si>
+    <t>Terminatör</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
     <t>KapakResmi</t>
   </si>
   <si>
@@ -222,6 +240,15 @@
     <t>YrmID</t>
   </si>
   <si>
+    <t>ESERLER</t>
+  </si>
+  <si>
+    <t>EserlerID</t>
+  </si>
+  <si>
+    <t>YrmIDFK</t>
+  </si>
+  <si>
     <t>UyeIDFK</t>
   </si>
   <si>
@@ -231,6 +258,15 @@
     <t>EklemeTarihi</t>
   </si>
   <si>
+    <t>Cinsiyet</t>
+  </si>
+  <si>
+    <t>DogumTarihi</t>
+  </si>
+  <si>
+    <t>DogumYeri</t>
+  </si>
+  <si>
     <t>Avatar</t>
   </si>
   <si>
@@ -240,6 +276,33 @@
     <t>EserBilgisiID</t>
   </si>
   <si>
+    <t>EserBilgisiIDFK</t>
+  </si>
+  <si>
+    <t>OyuncuID</t>
+  </si>
+  <si>
+    <t>OyuncuIsmi</t>
+  </si>
+  <si>
+    <t>OyuncuSoyisim</t>
+  </si>
+  <si>
+    <t>YonetmenID</t>
+  </si>
+  <si>
+    <t>YonetmenIsmi</t>
+  </si>
+  <si>
+    <t>YonetmenSoyisim</t>
+  </si>
+  <si>
+    <t>OyuncuIDFK</t>
+  </si>
+  <si>
+    <t>YonetmenIDFK</t>
+  </si>
+  <si>
     <t>MovieStallPuani</t>
   </si>
   <si>
@@ -249,13 +312,19 @@
     <t>Izlenecekler(EserBilgisiID)</t>
   </si>
   <si>
-    <t>Oyuncular</t>
-  </si>
-  <si>
-    <t>Yonetmen</t>
-  </si>
-  <si>
-    <t>nasuhberber@nazurabi.com</t>
+    <t>KATEGORİYE AİT ESERLER</t>
+  </si>
+  <si>
+    <t>KEserID</t>
+  </si>
+  <si>
+    <t>OYUNCULARIN FİLMLERİ</t>
+  </si>
+  <si>
+    <t>OFID</t>
+  </si>
+  <si>
+    <t>YFID</t>
   </si>
 </sst>
 </file>
@@ -297,7 +366,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,6 +405,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF66FF33"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -346,8 +433,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9966FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33CCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -407,12 +512,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -459,6 +584,15 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -468,10 +602,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -493,25 +662,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -523,6 +683,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF33CCCC"/>
+      <color rgb="FF9966FF"/>
+      <color rgb="FFFFFF66"/>
+      <color rgb="FFCC0066"/>
       <color rgb="FFFF0066"/>
       <color rgb="FF66FF33"/>
     </mruColors>
@@ -801,30 +965,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y33"/>
+  <dimension ref="A1:Y47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="10.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" style="3" customWidth="1"/>
     <col min="10" max="10" width="14.33203125" style="3" customWidth="1"/>
     <col min="11" max="11" width="16.44140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" style="3" customWidth="1"/>
     <col min="14" max="14" width="15.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.88671875" style="3" customWidth="1"/>
     <col min="16" max="17" width="25" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.88671875" style="3" customWidth="1"/>
-    <col min="20" max="20" width="13" style="3" customWidth="1"/>
+    <col min="19" max="19" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
@@ -840,21 +1004,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="K1" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="33"/>
+      <c r="A1" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
+      <c r="K1" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="34"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -864,37 +1028,37 @@
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -905,31 +1069,31 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1234</v>
+        <v>49</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K3" s="6">
         <v>1</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -940,115 +1104,103 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K4" s="6">
         <v>2</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="21" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
-      <c r="I7" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
+      <c r="I7" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="16"/>
+        <v>60</v>
+      </c>
+      <c r="C8" s="19"/>
       <c r="D8" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>26</v>
+        <v>61</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="R8" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="S8" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="T8" s="12" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
@@ -1058,7 +1210,7 @@
       <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="6">
         <v>1</v>
       </c>
@@ -1066,23 +1218,32 @@
         <v>12</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1984</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" s="6">
+        <v>1984</v>
+      </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
+      <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="1:25" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
@@ -1091,7 +1252,7 @@
       <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="6">
         <v>2</v>
       </c>
@@ -1099,21 +1260,21 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="6">
         <v>3</v>
       </c>
@@ -1121,20 +1282,30 @@
         <v>13</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="18" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="I11" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="6">
         <v>4</v>
       </c>
@@ -1142,27 +1313,38 @@
         <v>3</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="31"/>
+        <v>52</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="C13" s="17"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="6">
         <v>5</v>
       </c>
@@ -1170,47 +1352,22 @@
         <v>8</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>43</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="C14" s="17"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="6">
         <v>6</v>
       </c>
@@ -1218,25 +1375,14 @@
         <v>2</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="C15" s="17"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="18" x14ac:dyDescent="0.3">
+      <c r="C15" s="20"/>
       <c r="D15" s="6">
         <v>7</v>
       </c>
@@ -1244,14 +1390,19 @@
         <v>11</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="18" x14ac:dyDescent="0.3">
-      <c r="C16" s="17"/>
+        <v>52</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="C16" s="20"/>
       <c r="D16" s="6">
         <v>8</v>
       </c>
@@ -1259,22 +1410,23 @@
         <v>10</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
+        <v>52</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="17" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C17" s="17"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="6">
         <v>9</v>
       </c>
@@ -1282,37 +1434,19 @@
         <v>15</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="I17" s="25">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
     </row>
     <row r="18" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C18" s="17"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="6">
         <v>10</v>
       </c>
@@ -1320,20 +1454,14 @@
         <v>4</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C19" s="17"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" ht="18" x14ac:dyDescent="0.3">
+      <c r="C19" s="20"/>
       <c r="D19" s="6">
         <v>11</v>
       </c>
@@ -1341,14 +1469,24 @@
         <v>6</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="3:22" ht="18" x14ac:dyDescent="0.3">
-      <c r="C20" s="17"/>
+        <v>52</v>
+      </c>
+      <c r="I19" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C20" s="20"/>
       <c r="D20" s="6">
         <v>12</v>
       </c>
@@ -1356,21 +1494,38 @@
         <v>7</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
+        <v>52</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="21" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C21" s="17"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="6">
         <v>13</v>
       </c>
@@ -1378,18 +1533,22 @@
         <v>19</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="M21" s="16"/>
+        <v>52</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
     </row>
     <row r="22" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C22" s="17"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="6">
         <v>14</v>
       </c>
@@ -1397,18 +1556,14 @@
         <v>14</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="M22" s="19"/>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C23" s="17"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" ht="18" x14ac:dyDescent="0.3">
+      <c r="C23" s="20"/>
       <c r="D23" s="6">
         <v>15</v>
       </c>
@@ -1416,17 +1571,19 @@
         <v>9</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
+        <v>52</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
     </row>
     <row r="24" spans="3:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="17"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="6">
         <v>16</v>
       </c>
@@ -1434,18 +1591,24 @@
         <v>1</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H24" s="3"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
+      <c r="I24" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="25" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C25" s="17"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="6">
         <v>17</v>
       </c>
@@ -1453,17 +1616,19 @@
         <v>17</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
+        <v>52</v>
+      </c>
+      <c r="I25" s="27">
+        <v>1</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
     </row>
     <row r="26" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C26" s="17"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="6">
         <v>18</v>
       </c>
@@ -1471,14 +1636,14 @@
         <v>5</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C27" s="17"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" ht="18" x14ac:dyDescent="0.3">
+      <c r="C27" s="20"/>
       <c r="D27" s="6">
         <v>19</v>
       </c>
@@ -1486,35 +1651,203 @@
         <v>16</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>48</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="I27" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="H31" s="20"/>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="I28" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="R28" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="S28" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" ht="18" x14ac:dyDescent="0.3">
+      <c r="D29" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="D30" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" ht="18" x14ac:dyDescent="0.3">
+      <c r="D31" s="23">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="I31" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
     </row>
     <row r="32" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="H32" s="20"/>
-    </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H33" s="20"/>
+      <c r="I32" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="9:19" x14ac:dyDescent="0.3">
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+    </row>
+    <row r="37" spans="9:19" ht="18" x14ac:dyDescent="0.3">
+      <c r="I37" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+    </row>
+    <row r="38" spans="9:19" x14ac:dyDescent="0.3">
+      <c r="I38" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="M38" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="N38" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="9:19" x14ac:dyDescent="0.3">
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+    </row>
+    <row r="44" spans="9:19" x14ac:dyDescent="0.3">
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+    </row>
+    <row r="47" spans="9:19" ht="18" x14ac:dyDescent="0.3">
+      <c r="O47" s="21"/>
     </row>
   </sheetData>
   <sortState ref="AC4:AC24">
     <sortCondition ref="AC4"/>
   </sortState>
-  <mergeCells count="8">
+  <mergeCells count="13">
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I7:T7"/>
-    <mergeCell ref="I12:S12"/>
-    <mergeCell ref="I16:N16"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="I27:S27"/>
+    <mergeCell ref="I7:Q7"/>
+    <mergeCell ref="I11:P11"/>
+    <mergeCell ref="I19:P19"/>
+    <mergeCell ref="I37:N37"/>
+    <mergeCell ref="I31:O31"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>

--- a/VERİTABANI DİYAGRAMI.xlsx
+++ b/VERİTABANI DİYAGRAMI.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="103">
   <si>
     <t>Aksiyon</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>YFID</t>
+  </si>
+  <si>
+    <t>YayinDurum</t>
   </si>
 </sst>
 </file>
@@ -537,7 +540,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -620,6 +623,39 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -638,40 +674,13 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -967,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1004,21 +1013,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40"/>
-      <c r="K1" s="34" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34"/>
+      <c r="K1" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="34"/>
+      <c r="L1" s="28"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -1132,28 +1141,29 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="21"/>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
-      <c r="I7" s="43" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31"/>
+      <c r="I7" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="47"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -1202,6 +1212,9 @@
       <c r="Q8" s="12" t="s">
         <v>67</v>
       </c>
+      <c r="R8" s="12" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -1244,6 +1257,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
     </row>
     <row r="10" spans="1:25" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
@@ -1287,16 +1301,16 @@
       <c r="G11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="44" t="s">
+      <c r="I11" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
@@ -1395,11 +1409,11 @@
       <c r="G15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="32" t="s">
+      <c r="I15" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C16" s="20"/>
@@ -1474,16 +1488,16 @@
       <c r="G19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="45" t="s">
+      <c r="I19" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
     </row>
     <row r="20" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C20" s="20"/>
@@ -1576,11 +1590,11 @@
       <c r="G23" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I23" s="33" t="s">
+      <c r="I23" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
     </row>
     <row r="24" spans="3:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="20"/>
@@ -1656,19 +1670,19 @@
       <c r="G27" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I27" s="42" t="s">
+      <c r="I27" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
       <c r="V27" s="1"/>
     </row>
     <row r="28" spans="3:22" x14ac:dyDescent="0.3">
@@ -1707,11 +1721,11 @@
       </c>
     </row>
     <row r="29" spans="3:22" ht="18" x14ac:dyDescent="0.3">
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -1741,15 +1755,15 @@
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
-      <c r="I31" s="29" t="s">
+      <c r="I31" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
     </row>
     <row r="32" spans="3:22" x14ac:dyDescent="0.3">
       <c r="I32" s="18" t="s">
@@ -1784,14 +1798,14 @@
       <c r="O33" s="6"/>
     </row>
     <row r="37" spans="9:19" ht="18" x14ac:dyDescent="0.3">
-      <c r="I37" s="28" t="s">
+      <c r="I37" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
     </row>
     <row r="38" spans="9:19" x14ac:dyDescent="0.3">
       <c r="I38" s="17" t="s">
@@ -1835,19 +1849,19 @@
     <sortCondition ref="AC4"/>
   </sortState>
   <mergeCells count="13">
+    <mergeCell ref="I37:N37"/>
+    <mergeCell ref="I31:O31"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I23:K23"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="I27:S27"/>
-    <mergeCell ref="I7:Q7"/>
     <mergeCell ref="I11:P11"/>
     <mergeCell ref="I19:P19"/>
-    <mergeCell ref="I37:N37"/>
-    <mergeCell ref="I31:O31"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I7:R7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>

--- a/VERİTABANI DİYAGRAMI.xlsx
+++ b/VERİTABANI DİYAGRAMI.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="102">
   <si>
     <t>Aksiyon</t>
   </si>
@@ -108,9 +108,6 @@
     <t>OYUNCULAR</t>
   </si>
   <si>
-    <t>YÖNETMELER</t>
-  </si>
-  <si>
     <t>YntID</t>
   </si>
   <si>
@@ -240,15 +237,6 @@
     <t>YrmID</t>
   </si>
   <si>
-    <t>ESERLER</t>
-  </si>
-  <si>
-    <t>EserlerID</t>
-  </si>
-  <si>
-    <t>YrmIDFK</t>
-  </si>
-  <si>
     <t>UyeIDFK</t>
   </si>
   <si>
@@ -312,9 +300,6 @@
     <t>Izlenecekler(EserBilgisiID)</t>
   </si>
   <si>
-    <t>KATEGORİYE AİT ESERLER</t>
-  </si>
-  <si>
     <t>KEserID</t>
   </si>
   <si>
@@ -328,6 +313,18 @@
   </si>
   <si>
     <t>YayinDurum</t>
+  </si>
+  <si>
+    <t>DuzenlenmeTarihi</t>
+  </si>
+  <si>
+    <t>YÖNETMENİN FİLMLERİ</t>
+  </si>
+  <si>
+    <t>YÖNETMENLER</t>
+  </si>
+  <si>
+    <t>KATEGORİYE AİT FİLMLER</t>
   </si>
 </sst>
 </file>
@@ -369,7 +366,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,12 +412,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,7 +531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -587,13 +578,10 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -605,6 +593,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -617,11 +611,20 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -647,40 +650,25 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -976,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -995,8 +983,7 @@
     <col min="14" max="14" width="15.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.88671875" style="3" customWidth="1"/>
     <col min="16" max="17" width="25" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="16.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16" style="3" bestFit="1" customWidth="1"/>
@@ -1013,21 +1000,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
-      <c r="K1" s="28" t="s">
+      <c r="A1" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="28"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="38"/>
+      <c r="K1" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="32"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -1037,37 +1024,37 @@
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>39</v>
-      </c>
       <c r="I2" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -1078,31 +1065,31 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K3" s="6">
         <v>1</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -1113,47 +1100,47 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="H4" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K4" s="6">
         <v>2</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="29" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
       <c r="I7" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J7" s="46"/>
       <c r="K7" s="46"/>
@@ -1163,57 +1150,61 @@
       <c r="O7" s="46"/>
       <c r="P7" s="46"/>
       <c r="Q7" s="46"/>
-      <c r="R7" s="47"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>27</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="O8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="O8" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>64</v>
-      </c>
       <c r="Q8" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
@@ -1223,7 +1214,7 @@
       <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="6">
         <v>1</v>
       </c>
@@ -1231,10 +1222,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" s="6">
         <v>1</v>
@@ -1243,13 +1234,13 @@
         <v>1</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L9" s="6">
         <v>1984</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N9" s="6">
         <v>1984</v>
@@ -1258,6 +1249,7 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
     </row>
     <row r="10" spans="1:25" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
@@ -1266,7 +1258,7 @@
       <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="6">
         <v>2</v>
       </c>
@@ -1274,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y10" s="2"/>
     </row>
@@ -1288,7 +1280,7 @@
       <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="6">
         <v>3</v>
       </c>
@@ -1296,21 +1288,22 @@
         <v>13</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
@@ -1319,7 +1312,7 @@
       <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="6">
         <v>4</v>
       </c>
@@ -1327,38 +1320,41 @@
         <v>3</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="C13" s="20"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="6">
         <v>5</v>
       </c>
@@ -1366,10 +1362,10 @@
         <v>8</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -1379,9 +1375,10 @@
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="C14" s="20"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="6">
         <v>6</v>
       </c>
@@ -1389,14 +1386,14 @@
         <v>2</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="18" x14ac:dyDescent="0.3">
-      <c r="C15" s="20"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="6">
         <v>7</v>
       </c>
@@ -1404,19 +1401,19 @@
         <v>11</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
+        <v>51</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="C16" s="20"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="6">
         <v>8</v>
       </c>
@@ -1424,23 +1421,23 @@
         <v>10</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>100</v>
+        <v>51</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C17" s="20"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="6">
         <v>9</v>
       </c>
@@ -1448,19 +1445,19 @@
         <v>15</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" s="25">
+        <v>51</v>
+      </c>
+      <c r="I17" s="24">
         <v>1</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C18" s="20"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="6">
         <v>10</v>
       </c>
@@ -1468,14 +1465,14 @@
         <v>4</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="3:22" ht="18" x14ac:dyDescent="0.3">
-      <c r="C19" s="20"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="6">
         <v>11</v>
       </c>
@@ -1483,24 +1480,25 @@
         <v>6</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I19" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
+        <v>51</v>
+      </c>
+      <c r="I19" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
     </row>
     <row r="20" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C20" s="20"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="6">
         <v>12</v>
       </c>
@@ -1508,38 +1506,41 @@
         <v>7</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M20" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C21" s="20"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="6">
         <v>13</v>
       </c>
@@ -1547,10 +1548,10 @@
         <v>19</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -1560,9 +1561,10 @@
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
     </row>
     <row r="22" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C22" s="20"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="6">
         <v>14</v>
       </c>
@@ -1570,14 +1572,14 @@
         <v>14</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="3:22" ht="18" x14ac:dyDescent="0.3">
-      <c r="C23" s="20"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="6">
         <v>15</v>
       </c>
@@ -1585,19 +1587,19 @@
         <v>9</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
     </row>
     <row r="24" spans="3:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="20"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="6">
         <v>16</v>
       </c>
@@ -1605,24 +1607,24 @@
         <v>1</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H24" s="3"/>
-      <c r="I24" s="26" t="s">
-        <v>101</v>
+      <c r="I24" s="25" t="s">
+        <v>96</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C25" s="20"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="6">
         <v>17</v>
       </c>
@@ -1630,19 +1632,19 @@
         <v>17</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I25" s="27">
+        <v>51</v>
+      </c>
+      <c r="I25" s="26">
         <v>1</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C26" s="20"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="6">
         <v>18</v>
       </c>
@@ -1650,14 +1652,14 @@
         <v>5</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="3:22" ht="18" x14ac:dyDescent="0.3">
-      <c r="C27" s="20"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="6">
         <v>19</v>
       </c>
@@ -1665,67 +1667,67 @@
         <v>16</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I27" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
+        <v>51</v>
+      </c>
+      <c r="I27" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
       <c r="V27" s="1"/>
     </row>
     <row r="28" spans="3:22" x14ac:dyDescent="0.3">
       <c r="I28" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M28" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="J28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="N28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="R28" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="O28" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="R28" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="S28" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="3:22" ht="18" x14ac:dyDescent="0.3">
-      <c r="D29" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
+      <c r="D29" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -1739,53 +1741,53 @@
       <c r="S29" s="6"/>
     </row>
     <row r="30" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="D30" s="22" t="s">
-        <v>98</v>
+      <c r="D30" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="3:22" ht="18" x14ac:dyDescent="0.3">
-      <c r="D31" s="23">
+      <c r="D31" s="22">
         <v>1</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
-      <c r="I31" s="40" t="s">
+      <c r="I31" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="I32" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="I32" s="18" t="s">
+      <c r="J32" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="J32" s="16" t="s">
-        <v>76</v>
-      </c>
       <c r="K32" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="9:19" x14ac:dyDescent="0.3">
@@ -1797,44 +1799,6 @@
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
     </row>
-    <row r="37" spans="9:19" ht="18" x14ac:dyDescent="0.3">
-      <c r="I37" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
-    </row>
-    <row r="38" spans="9:19" x14ac:dyDescent="0.3">
-      <c r="I38" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L38" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="M38" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="N38" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="9:19" x14ac:dyDescent="0.3">
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-    </row>
     <row r="44" spans="9:19" x14ac:dyDescent="0.3">
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
@@ -1842,26 +1806,25 @@
       <c r="S44" s="1"/>
     </row>
     <row r="47" spans="9:19" ht="18" x14ac:dyDescent="0.3">
-      <c r="O47" s="21"/>
+      <c r="O47" s="20"/>
     </row>
   </sheetData>
-  <sortState ref="AC4:AC24">
-    <sortCondition ref="AC4"/>
+  <sortState ref="V4:V24">
+    <sortCondition ref="V4"/>
   </sortState>
-  <mergeCells count="13">
-    <mergeCell ref="I37:N37"/>
-    <mergeCell ref="I31:O31"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I23:K23"/>
+  <mergeCells count="12">
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="I27:S27"/>
-    <mergeCell ref="I11:P11"/>
-    <mergeCell ref="I19:P19"/>
-    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="I19:Q19"/>
+    <mergeCell ref="I11:Q11"/>
+    <mergeCell ref="I7:S7"/>
+    <mergeCell ref="I31:O31"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>

--- a/VERİTABANI DİYAGRAMI.xlsx
+++ b/VERİTABANI DİYAGRAMI.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>Aksiyon</t>
   </si>
@@ -156,40 +156,10 @@
     <t>Silinmis</t>
   </si>
   <si>
-    <t>Nasuh</t>
-  </si>
-  <si>
-    <t>BERBER</t>
-  </si>
-  <si>
-    <t>nazurabi</t>
-  </si>
-  <si>
-    <t>nasuhberber@gmail.com</t>
-  </si>
-  <si>
-    <t>Hn161109*</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
     <t>false</t>
-  </si>
-  <si>
-    <t>Murtaza</t>
-  </si>
-  <si>
-    <t>ŞUAYİPOĞLU</t>
-  </si>
-  <si>
-    <t>musua</t>
-  </si>
-  <si>
-    <t>musua@gmail.com</t>
-  </si>
-  <si>
-    <t>Musua2626*</t>
   </si>
   <si>
     <t>KategoriIsmi</t>
@@ -611,6 +581,51 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -624,51 +639,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -965,7 +935,7 @@
   <dimension ref="A1:Y47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1000,21 +970,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38"/>
-      <c r="K1" s="32" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="33"/>
+      <c r="K1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="32"/>
+      <c r="L1" s="27"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -1064,26 +1034,16 @@
       <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K3" s="6">
         <v>1</v>
@@ -1099,26 +1059,16 @@
       <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K4" s="6">
         <v>2</v>
@@ -1128,44 +1078,44 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="20"/>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
-      <c r="I7" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="I7" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>38</v>
@@ -1174,10 +1124,10 @@
         <v>44</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>27</v>
@@ -1186,25 +1136,25 @@
         <v>30</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
@@ -1222,10 +1172,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I9" s="6">
         <v>1</v>
@@ -1234,13 +1184,13 @@
         <v>1</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="L9" s="6">
         <v>1984</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N9" s="6">
         <v>1984</v>
@@ -1266,10 +1216,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Y10" s="2"/>
     </row>
@@ -1288,22 +1238,22 @@
         <v>13</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
@@ -1320,37 +1270,37 @@
         <v>3</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="M12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
@@ -1362,10 +1312,10 @@
         <v>8</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -1386,10 +1336,10 @@
         <v>2</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="18" x14ac:dyDescent="0.3">
@@ -1401,16 +1351,16 @@
         <v>11</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
+        <v>46</v>
+      </c>
+      <c r="I15" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C16" s="19"/>
@@ -1421,19 +1371,19 @@
         <v>10</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="3:22" x14ac:dyDescent="0.3">
@@ -1445,10 +1395,10 @@
         <v>15</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I17" s="24">
         <v>1</v>
@@ -1465,10 +1415,10 @@
         <v>4</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="3:22" ht="18" x14ac:dyDescent="0.3">
@@ -1480,22 +1430,22 @@
         <v>6</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
+        <v>46</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C20" s="19"/>
@@ -1506,37 +1456,37 @@
         <v>7</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="M20" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="3:22" x14ac:dyDescent="0.3">
@@ -1548,10 +1498,10 @@
         <v>19</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -1572,10 +1522,10 @@
         <v>14</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="3:22" ht="18" x14ac:dyDescent="0.3">
@@ -1587,16 +1537,16 @@
         <v>9</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I23" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
+        <v>46</v>
+      </c>
+      <c r="I23" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
     </row>
     <row r="24" spans="3:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="19"/>
@@ -1607,20 +1557,20 @@
         <v>1</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="25" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="3:22" x14ac:dyDescent="0.3">
@@ -1632,10 +1582,10 @@
         <v>17</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I25" s="26">
         <v>1</v>
@@ -1652,10 +1602,10 @@
         <v>5</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="3:22" ht="18" x14ac:dyDescent="0.3">
@@ -1667,29 +1617,29 @@
         <v>16</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
       <c r="V27" s="1"/>
     </row>
     <row r="28" spans="3:22" x14ac:dyDescent="0.3">
       <c r="I28" s="16" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>33</v>
@@ -1701,19 +1651,19 @@
         <v>35</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="N28" s="7" t="s">
         <v>37</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="R28" s="7" t="s">
         <v>38</v>
@@ -1723,11 +1673,11 @@
       </c>
     </row>
     <row r="29" spans="3:22" ht="18" x14ac:dyDescent="0.3">
-      <c r="D29" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
+      <c r="D29" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -1742,13 +1692,13 @@
     </row>
     <row r="30" spans="3:22" x14ac:dyDescent="0.3">
       <c r="D30" s="21" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="3:22" ht="18" x14ac:dyDescent="0.3">
@@ -1757,34 +1707,34 @@
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
-      <c r="I31" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
+      <c r="I31" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
     </row>
     <row r="32" spans="3:22" x14ac:dyDescent="0.3">
       <c r="I32" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K32" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="J32" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="K32" s="13" t="s">
-        <v>81</v>
-      </c>
       <c r="L32" s="7" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>38</v>
@@ -1813,6 +1763,10 @@
     <sortCondition ref="V4"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="I31:O31"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I23:K23"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="A1:I1"/>
@@ -1821,16 +1775,8 @@
     <mergeCell ref="I19:Q19"/>
     <mergeCell ref="I11:Q11"/>
     <mergeCell ref="I7:S7"/>
-    <mergeCell ref="I31:O31"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I23:K23"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
-    <hyperlink ref="F4" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>